--- a/Team-Data/2013-14/11-26-2013-14.xlsx
+++ b/Team-Data/2013-14/11-26-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,148 +733,148 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.533</v>
+        <v>0.571</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>37.5</v>
+        <v>38.1</v>
       </c>
       <c r="J2" t="n">
-        <v>81.09999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.463</v>
+        <v>0.466</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M2" t="n">
         <v>22.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.357</v>
+        <v>0.354</v>
       </c>
       <c r="O2" t="n">
-        <v>17.1</v>
+        <v>16.7</v>
       </c>
       <c r="P2" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.734</v>
+        <v>0.724</v>
       </c>
       <c r="R2" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="S2" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T2" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="U2" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="V2" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA2" t="n">
         <v>20.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.2</v>
+        <v>100.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM2" t="n">
         <v>11</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP2" t="n">
         <v>16</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>20</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS2" t="n">
         <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV2" t="n">
         <v>11</v>
       </c>
       <c r="AW2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY2" t="n">
         <v>11</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -816,10 +883,10 @@
         <v>18</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -944,7 +1011,7 @@
         <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK3" t="n">
         <v>18</v>
@@ -962,13 +1029,13 @@
         <v>24</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS3" t="n">
         <v>22</v>
@@ -986,13 +1053,13 @@
         <v>18</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
         <v>15</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>0.286</v>
+        <v>0.231</v>
       </c>
       <c r="H4" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I4" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.437</v>
+        <v>0.432</v>
       </c>
       <c r="L4" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.356</v>
+        <v>0.361</v>
       </c>
       <c r="O4" t="n">
         <v>19.7</v>
       </c>
       <c r="P4" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.758</v>
+        <v>0.749</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="T4" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U4" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="V4" t="n">
         <v>15.4</v>
@@ -1090,34 +1157,34 @@
         <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-6.9</v>
+        <v>-7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
         <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
@@ -1138,19 +1205,19 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
         <v>6</v>
       </c>
       <c r="AP4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ4" t="n">
         <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS4" t="n">
         <v>16</v>
@@ -1159,28 +1226,28 @@
         <v>20</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
         <v>23</v>
       </c>
       <c r="AX4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY4" t="n">
         <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -1296,10 +1363,10 @@
         <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
         <v>20</v>
@@ -1347,16 +1414,16 @@
         <v>4</v>
       </c>
       <c r="AW5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
@@ -1365,7 +1432,7 @@
         <v>29</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>-1</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>17</v>
@@ -1490,7 +1557,7 @@
         <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
@@ -1508,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>4</v>
@@ -1517,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>-8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
         <v>25</v>
@@ -1666,7 +1733,7 @@
         <v>26</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="n">
         <v>24</v>
@@ -1675,7 +1742,7 @@
         <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
@@ -1699,10 +1766,10 @@
         <v>14</v>
       </c>
       <c r="AS7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU7" t="n">
         <v>26</v>
@@ -1711,13 +1778,13 @@
         <v>20</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -1860,25 +1927,25 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM8" t="n">
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
       </c>
       <c r="AR8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS8" t="n">
         <v>19</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>1.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2027,7 +2094,7 @@
         <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>20</v>
@@ -2051,7 +2118,7 @@
         <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>5</v>
@@ -2075,7 +2142,7 @@
         <v>12</v>
       </c>
       <c r="AW9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2087,13 +2154,13 @@
         <v>21</v>
       </c>
       <c r="BA9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB9" t="n">
         <v>6</v>
       </c>
       <c r="BC9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -2200,22 +2267,22 @@
         <v>-0.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
@@ -2227,13 +2294,13 @@
         <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2257,10 +2324,10 @@
         <v>6</v>
       </c>
       <c r="AW10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY10" t="n">
         <v>11</v>
@@ -2269,10 +2336,10 @@
         <v>11</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.571</v>
       </c>
       <c r="H11" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J11" t="n">
-        <v>81</v>
+        <v>80.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.474</v>
+        <v>0.476</v>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="M11" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="N11" t="n">
-        <v>0.44</v>
+        <v>0.444</v>
       </c>
       <c r="O11" t="n">
         <v>14.9</v>
@@ -2349,16 +2416,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="T11" t="n">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="U11" t="n">
         <v>23.9</v>
       </c>
       <c r="V11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="W11" t="n">
         <v>8</v>
@@ -2367,10 +2434,10 @@
         <v>5.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.9</v>
+        <v>23.5</v>
       </c>
       <c r="AA11" t="n">
         <v>20.7</v>
@@ -2379,34 +2446,34 @@
         <v>101.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
         <v>5</v>
       </c>
       <c r="AL11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM11" t="n">
         <v>10</v>
@@ -2427,16 +2494,16 @@
         <v>27</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>11</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AW11" t="n">
         <v>16</v>
@@ -2445,13 +2512,13 @@
         <v>8</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AZ11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>9.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>22</v>
@@ -2770,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>22</v>
@@ -2779,13 +2846,13 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR13" t="n">
         <v>26</v>
@@ -2794,7 +2861,7 @@
         <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
         <v>22</v>
@@ -2803,7 +2870,7 @@
         <v>19</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX13" t="n">
         <v>1</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -2958,7 +3025,7 @@
         <v>5</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>7</v>
@@ -2988,13 +3055,13 @@
         <v>9</v>
       </c>
       <c r="AX14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY14" t="n">
         <v>3</v>
       </c>
       <c r="AZ14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -3032,100 +3099,100 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.467</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>38.1</v>
+        <v>37.7</v>
       </c>
       <c r="J15" t="n">
-        <v>86.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.44</v>
+        <v>0.434</v>
       </c>
       <c r="L15" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="M15" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>0.407</v>
+        <v>0.403</v>
       </c>
       <c r="O15" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="P15" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.72</v>
+        <v>0.717</v>
       </c>
       <c r="R15" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S15" t="n">
-        <v>33.7</v>
+        <v>34.4</v>
       </c>
       <c r="T15" t="n">
-        <v>44.1</v>
+        <v>44.9</v>
       </c>
       <c r="U15" t="n">
-        <v>24.2</v>
+        <v>23.8</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X15" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AA15" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.4</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-2.5</v>
+        <v>-2.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>3</v>
@@ -3134,13 +3201,13 @@
         <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
         <v>28</v>
@@ -3152,19 +3219,19 @@
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT15" t="n">
         <v>8</v>
       </c>
-      <c r="AT15" t="n">
-        <v>9</v>
-      </c>
       <c r="AU15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW15" t="n">
         <v>27</v>
@@ -3173,19 +3240,19 @@
         <v>4</v>
       </c>
       <c r="AY15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
         <v>30</v>
       </c>
       <c r="BB15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -3292,19 +3359,19 @@
         <v>-2.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>19</v>
@@ -3334,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
         <v>17</v>
@@ -3352,7 +3419,7 @@
         <v>21</v>
       </c>
       <c r="AX16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY16" t="n">
         <v>18</v>
@@ -3361,13 +3428,13 @@
         <v>12</v>
       </c>
       <c r="BA16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB16" t="n">
         <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3498,22 +3565,22 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3531,19 +3598,19 @@
         <v>17</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA17" t="n">
         <v>7</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>6</v>
       </c>
       <c r="BB17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3689,7 +3756,7 @@
         <v>10</v>
       </c>
       <c r="AO18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
@@ -3716,7 +3783,7 @@
         <v>22</v>
       </c>
       <c r="AX18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -3841,10 +3908,10 @@
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>12</v>
@@ -3853,7 +3920,7 @@
         <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
@@ -3874,13 +3941,13 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ19" t="n">
         <v>2</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
         <v>12</v>
@@ -3892,10 +3959,10 @@
         <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -3942,64 +4009,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>0.429</v>
+        <v>0.462</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J20" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L20" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="M20" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4</v>
+        <v>0.392</v>
       </c>
       <c r="O20" t="n">
-        <v>18.1</v>
+        <v>18.8</v>
       </c>
       <c r="P20" t="n">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q20" t="n">
         <v>0.772</v>
       </c>
       <c r="R20" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S20" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="T20" t="n">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="U20" t="n">
         <v>22.1</v>
       </c>
       <c r="V20" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="W20" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X20" t="n">
         <v>7.9</v>
@@ -4008,28 +4075,28 @@
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
         <v>100.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
         <v>20</v>
@@ -4038,10 +4105,10 @@
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,19 +4117,19 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX20" t="n">
         <v>2</v>
@@ -4089,10 +4156,10 @@
         <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BB20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>-6.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF21" t="n">
         <v>25</v>
       </c>
       <c r="AG21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH21" t="n">
         <v>9</v>
@@ -4229,7 +4296,7 @@
         <v>10</v>
       </c>
       <c r="AM21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN21" t="n">
         <v>20</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
         <v>12</v>
@@ -4253,7 +4320,7 @@
         <v>28</v>
       </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4268,7 +4335,7 @@
         <v>16</v>
       </c>
       <c r="AZ21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4469,7 @@
         <v>18</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
         <v>14</v>
@@ -4435,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV22" t="n">
         <v>21</v>
@@ -4447,7 +4514,7 @@
         <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>23</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -4488,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>0.357</v>
+        <v>0.308</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>37.9</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.462</v>
+        <v>0.459</v>
       </c>
       <c r="L23" t="n">
         <v>8.1</v>
       </c>
       <c r="M23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.387</v>
+        <v>0.389</v>
       </c>
       <c r="O23" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P23" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="R23" t="n">
-        <v>9.9</v>
+        <v>10.2</v>
       </c>
       <c r="S23" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="T23" t="n">
         <v>43.3</v>
       </c>
       <c r="U23" t="n">
-        <v>21.5</v>
+        <v>20.9</v>
       </c>
       <c r="V23" t="n">
-        <v>17.4</v>
+        <v>17.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA23" t="n">
         <v>18.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.4</v>
+        <v>-2.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
         <v>24</v>
@@ -4578,13 +4645,13 @@
         <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
         <v>8</v>
@@ -4599,16 +4666,16 @@
         <v>8</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
         <v>20</v>
       </c>
       <c r="AQ23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS23" t="n">
         <v>10</v>
@@ -4617,31 +4684,31 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW23" t="n">
         <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY23" t="n">
         <v>28</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC23" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4824,7 @@
         <v>22</v>
       </c>
       <c r="AG24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
         <v>1</v>
@@ -4769,10 +4836,10 @@
         <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
         <v>12</v>
@@ -4793,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
         <v>5</v>
@@ -4802,13 +4869,13 @@
         <v>10</v>
       </c>
       <c r="AV24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW24" t="n">
         <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4817,7 +4884,7 @@
         <v>9</v>
       </c>
       <c r="BA24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB24" t="n">
         <v>8</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -4930,19 +4997,19 @@
         <v>1.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI25" t="n">
         <v>16</v>
@@ -4954,7 +5021,7 @@
         <v>9</v>
       </c>
       <c r="AL25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
@@ -4972,7 +5039,7 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
         <v>15</v>
@@ -4987,7 +5054,7 @@
         <v>24</v>
       </c>
       <c r="AW25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
@@ -5002,10 +5069,10 @@
         <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -5124,19 +5191,19 @@
         <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM26" t="n">
         <v>7</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
@@ -5181,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="BA26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-3.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>22</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>20</v>
@@ -5312,13 +5379,13 @@
         <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
         <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
         <v>13</v>
@@ -5333,7 +5400,7 @@
         <v>18</v>
       </c>
       <c r="AQ27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR27" t="n">
         <v>17</v>
@@ -5360,13 +5427,13 @@
         <v>24</v>
       </c>
       <c r="AZ27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
         <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC27" t="n">
         <v>23</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>12.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5506,7 +5573,7 @@
         <v>19</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
         <v>29</v>
@@ -5515,10 +5582,10 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
@@ -5527,7 +5594,7 @@
         <v>14</v>
       </c>
       <c r="AU28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV28" t="n">
         <v>6</v>
@@ -5536,10 +5603,10 @@
         <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -5580,94 +5647,94 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" t="n">
         <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>0.429</v>
+        <v>0.462</v>
       </c>
       <c r="H29" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I29" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J29" t="n">
-        <v>83.3</v>
+        <v>83.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="L29" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="M29" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.347</v>
+        <v>0.34</v>
       </c>
       <c r="O29" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P29" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.778</v>
+        <v>0.766</v>
       </c>
       <c r="R29" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>31</v>
       </c>
       <c r="T29" t="n">
-        <v>43.8</v>
+        <v>44.5</v>
       </c>
       <c r="U29" t="n">
         <v>17.5</v>
       </c>
       <c r="V29" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W29" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Z29" t="n">
         <v>23.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.6</v>
+        <v>23</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
         <v>17</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5676,64 +5743,64 @@
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AN29" t="n">
         <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ29" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AR29" t="n">
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AT29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU29" t="n">
         <v>30</v>
       </c>
       <c r="AV29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AY29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ29" t="n">
         <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
         <v>19</v>
       </c>
       <c r="BC29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -5888,19 +5955,19 @@
         <v>30</v>
       </c>
       <c r="AT30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU30" t="n">
         <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW30" t="n">
         <v>17</v>
       </c>
       <c r="AX30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
@@ -5944,52 +6011,52 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.429</v>
+        <v>0.385</v>
       </c>
       <c r="H31" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I31" t="n">
-        <v>38.2</v>
+        <v>37.6</v>
       </c>
       <c r="J31" t="n">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="K31" t="n">
-        <v>0.444</v>
+        <v>0.437</v>
       </c>
       <c r="L31" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.386</v>
+        <v>0.393</v>
       </c>
       <c r="O31" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="P31" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.744</v>
+        <v>0.737</v>
       </c>
       <c r="R31" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S31" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T31" t="n">
         <v>42</v>
@@ -5998,46 +6065,46 @@
         <v>24.2</v>
       </c>
       <c r="V31" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="W31" t="n">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y31" t="n">
         <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="AA31" t="n">
         <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1.7</v>
+        <v>-2.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG31" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AH31" t="n">
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ31" t="n">
         <v>5</v>
@@ -6046,28 +6113,28 @@
         <v>19</v>
       </c>
       <c r="AL31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AM31" t="n">
         <v>9</v>
       </c>
       <c r="AN31" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP31" t="n">
         <v>26</v>
       </c>
-      <c r="AP31" t="n">
-        <v>25</v>
-      </c>
       <c r="AQ31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT31" t="n">
         <v>18</v>
@@ -6076,28 +6143,28 @@
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA31" t="n">
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-26-2013-14</t>
+          <t>2013-11-26</t>
         </is>
       </c>
     </row>
